--- a/jshint代码检查统计.xlsx
+++ b/jshint代码检查统计.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="2017-5-26" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="问题修复后" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>JS文件</t>
   </si>
@@ -92,6 +93,18 @@
   </si>
   <si>
     <t>在报错处添加"use strict";</t>
+  </si>
+  <si>
+    <t>'toggleToc' was used before it was defined</t>
+  </si>
+  <si>
+    <t>'toggleToc'和'listenForTocClick'2个方法互相调用，导致报错</t>
+  </si>
+  <si>
+    <t>'kub' is defined but never used</t>
+  </si>
+  <si>
+    <t>kub未在此文件中调用</t>
   </si>
 </sst>
 </file>
@@ -210,8 +223,8 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -343,4 +356,125 @@
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3254716981132"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.6367924528302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4150943396226"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.9433962264151"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.7594339622641"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6509433962264"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="n">
+        <f aca="false">SUM(C2:C8)</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/jshint代码检查统计.xlsx
+++ b/jshint代码检查统计.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2017-5-26" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="问题修复后" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="代码量" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>JS文件</t>
   </si>
@@ -105,6 +106,57 @@
   </si>
   <si>
     <t>kub未在此文件中调用</t>
+  </si>
+  <si>
+    <t>文件夹</t>
+  </si>
+  <si>
+    <t>文件类型</t>
+  </si>
+  <si>
+    <t>行数</t>
+  </si>
+  <si>
+    <t>js</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>scss</t>
+  </si>
+  <si>
+    <t>sass</t>
+  </si>
+  <si>
+    <t>_sass</t>
+  </si>
+  <si>
+    <t>_data</t>
+  </si>
+  <si>
+    <t>yml</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>md</t>
+  </si>
+  <si>
+    <t>_includes</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>_layouts</t>
+  </si>
+  <si>
+    <t>_config.yml</t>
+  </si>
+  <si>
+    <t>search.json</t>
   </si>
 </sst>
 </file>
@@ -114,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="文泉驿点阵正黑"/>
@@ -143,11 +195,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="文泉驿点阵正黑"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -200,7 +247,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -229,12 +276,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6509433962264"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.8349056603774"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4150943396226"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.7688679245283"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.7594339622641"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6509433962264"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.6462264150943"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8537735849057"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.4339622641509"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.9575471698113"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -365,18 +410,17 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3254716981132"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.6367924528302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4150943396226"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.9433962264151"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.7594339622641"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6509433962264"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7311320754717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.9150943396226"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8537735849057"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.8066037735849"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.9575471698113"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -466,6 +510,187 @@
       <c r="C9" s="0" t="n">
         <f aca="false">SUM(C2:C8)</f>
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6509433962264"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="n">
+        <f aca="false">SUM(C2:C14)</f>
+        <v>2470</v>
       </c>
     </row>
   </sheetData>

--- a/jshint代码检查统计.xlsx
+++ b/jshint代码检查统计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2017-5-26" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
   <si>
     <t>JS文件</t>
   </si>
@@ -96,16 +96,108 @@
     <t>在报错处添加"use strict";</t>
   </si>
   <si>
+    <t>/js/jekyll-search-copy.js</t>
+  </si>
+  <si>
+    <t>Expected '!==' and instead saw '!='.</t>
+  </si>
+  <si>
+    <t>Expected '{' and instead saw 'return'.</t>
+  </si>
+  <si>
+    <t>if判断/for循环代码块只有1行时，没有用'{'和'}'包起来</t>
+  </si>
+  <si>
+    <t>就算只有1行代码，也必须使用'{'和'}'包起来</t>
+  </si>
+  <si>
+    <t>Missing semicolon.</t>
+  </si>
+  <si>
+    <t>缺少分号</t>
+  </si>
+  <si>
+    <t>在报错处加上分号</t>
+  </si>
+  <si>
+    <t>'i' was used before it was defined.</t>
+  </si>
+  <si>
+    <t>参数在未定义前就被使用</t>
+  </si>
+  <si>
+    <t>将参数的定义放在调用之前</t>
+  </si>
+  <si>
+    <t>Wrap an immediate function invocation in parens to assist the reader in understanding that the expression is the result of a function, and not the function itself.</t>
+  </si>
+  <si>
+    <t>匿名函数调用必须
+(function() {
+   // body 
+}());
+而不是
+(function() {
+   // body
+})();
+这是为了表明，表达式的值是函数的结果，而不是函数本身</t>
+  </si>
+  <si>
+    <t>使用上面这种方式调用函数</t>
+  </si>
+  <si>
+    <t>Missing '()' invoking a constructor.</t>
+  </si>
+  <si>
+    <t>构造函数调用时缺少'()'</t>
+  </si>
+  <si>
+    <t>在报错处加上分号'()'</t>
+  </si>
+  <si>
+    <t>Expected an assignment or function call and instead saw an expression.</t>
+  </si>
+  <si>
+    <t>需要一个赋值或者一个函数调用，而不是一个表达式</t>
+  </si>
+  <si>
+    <t>使用赋值或者一个函数调用替换表达式</t>
+  </si>
+  <si>
+    <t>'require' is defined but never used.</t>
+  </si>
+  <si>
+    <t>参数或函数定义后从未使用过</t>
+  </si>
+  <si>
+    <t>删除未使用的参数或函数</t>
+  </si>
+  <si>
+    <t>'ActiveXObject' is not defined</t>
+  </si>
+  <si>
+    <t>'ActiveXObject'未定义</t>
+  </si>
+  <si>
+    <t>在jshint配置文件中添加"predef": ["ActiveXObject"]</t>
+  </si>
+  <si>
     <t>'toggleToc' was used before it was defined</t>
   </si>
   <si>
-    <t>'toggleToc'和'listenForTocClick'2个方法互相调用，导致报错</t>
+    <t>'toggleToc'和'listenForTocClick'2个方法互相调用，导致警告</t>
   </si>
   <si>
     <t>'kub' is defined but never used</t>
   </si>
   <si>
     <t>kub未在此文件中调用</t>
+  </si>
+  <si>
+    <t>26-28行代码块和函数s互相调用，导致警告</t>
+  </si>
+  <si>
+    <t>声明范围内未调用，但在其它位置有调用</t>
   </si>
   <si>
     <t>文件夹</t>
@@ -166,7 +258,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="文泉驿点阵正黑"/>
@@ -194,6 +286,11 @@
       <name val="文泉驿点阵正黑"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="文泉驿点阵正黑"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,7 +335,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -249,6 +346,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -268,18 +373,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.6462264150943"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8537735849057"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.4339622641509"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.9575471698113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.5188679245283"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3537735849057"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.1839622641509"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.2028301886792"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -386,10 +491,167 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="C8" s="0" t="n">
-        <f aca="false">SUM(C2:C7)</f>
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="141" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="n">
+        <f aca="false">SUM(C2:C18)</f>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -408,19 +670,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7311320754717"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.9150943396226"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8537735849057"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.8066037735849"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.9575471698113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2311320754717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.2877358490566"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3537735849057"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.6792452830189"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.2028301886792"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -445,13 +707,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -497,19 +759,44 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>32</v>
+      </c>
       <c r="C9" s="0" t="n">
-        <f aca="false">SUM(C2:C8)</f>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="n">
+        <f aca="false">SUM(C2:C10)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -530,32 +817,29 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6509433962264"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>257</v>
@@ -563,10 +847,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>31</v>
@@ -574,10 +858,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>5</v>
@@ -585,10 +869,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>12</v>
@@ -596,10 +880,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>499</v>
@@ -607,10 +891,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>450</v>
@@ -618,10 +902,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>35</v>
@@ -629,10 +913,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>726</v>
@@ -640,10 +924,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>68</v>
@@ -651,10 +935,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>152</v>
@@ -662,10 +946,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>140</v>
@@ -673,7 +957,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>60</v>
@@ -681,7 +965,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>35</v>

--- a/jshint代码检查统计.xlsx
+++ b/jshint代码检查统计.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="2017-5-26" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="问题修复后" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="2017-6-2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="代码量" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>JS文件</t>
   </si>
@@ -40,15 +40,6 @@
   </si>
   <si>
     <t>/js/script.js</t>
-  </si>
-  <si>
-    <t>'setFooterType' was used before it was defined.'setFooterType'为方法名，类似问题一起统计</t>
-  </si>
-  <si>
-    <t>方法在定义前就已经被调用</t>
-  </si>
-  <si>
-    <t>将方法的定义放在调用之前</t>
   </si>
   <si>
     <t>Expected '===' and instead saw '=='.</t>
@@ -164,15 +155,6 @@
     <t>使用赋值或者一个函数调用替换表达式</t>
   </si>
   <si>
-    <t>'require' is defined but never used.</t>
-  </si>
-  <si>
-    <t>参数或函数定义后从未使用过</t>
-  </si>
-  <si>
-    <t>删除未使用的参数或函数</t>
-  </si>
-  <si>
     <t>'ActiveXObject' is not defined</t>
   </si>
   <si>
@@ -180,24 +162,6 @@
   </si>
   <si>
     <t>在jshint配置文件中添加"predef": ["ActiveXObject"]</t>
-  </si>
-  <si>
-    <t>'toggleToc' was used before it was defined</t>
-  </si>
-  <si>
-    <t>'toggleToc'和'listenForTocClick'2个方法互相调用，导致警告</t>
-  </si>
-  <si>
-    <t>'kub' is defined but never used</t>
-  </si>
-  <si>
-    <t>kub未在此文件中调用</t>
-  </si>
-  <si>
-    <t>26-28行代码块和函数s互相调用，导致警告</t>
-  </si>
-  <si>
-    <t>声明范围内未调用，但在其它位置有调用</t>
   </si>
   <si>
     <t>文件夹</t>
@@ -258,7 +222,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="文泉驿点阵正黑"/>
@@ -286,11 +250,6 @@
       <name val="文泉驿点阵正黑"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="文泉驿点阵正黑"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -335,7 +294,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -345,10 +304,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -373,18 +328,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.5188679245283"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3537735849057"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.1839622641509"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.2028301886792"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.5141509433962"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9764150943396"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.0518867924528"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.4528301886792"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -412,7 +367,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>7</v>
@@ -421,12 +376,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>10</v>
@@ -440,7 +395,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>13</v>
@@ -449,14 +404,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="0" t="s">
@@ -468,9 +423,9 @@
         <v>18</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="0" t="s">
@@ -478,42 +433,42 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="B7" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>10</v>
@@ -524,24 +479,24 @@
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>27</v>
@@ -550,54 +505,54 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="141" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="141" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>39</v>
@@ -606,14 +561,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="0" t="s">
@@ -621,37 +576,9 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="C17" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="n">
-        <f aca="false">SUM(C2:C18)</f>
-        <v>102</v>
+        <f aca="false">SUM(C2:C16)</f>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -670,19 +597,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2311320754717"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.2877358490566"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3537735849057"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.6792452830189"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.2028301886792"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.7311320754717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.7830188679245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9764150943396"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.5518867924528"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.4528301886792"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -702,18 +629,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -750,8 +674,11 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="B7" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -759,44 +686,80 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="B9" s="0" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="C11" s="0" t="n">
-        <f aca="false">SUM(C2:C10)</f>
-        <v>8</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="n">
+        <f aca="false">SUM(C2:C16)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -825,21 +788,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>257</v>
@@ -847,10 +810,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>31</v>
@@ -858,10 +821,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>5</v>
@@ -869,10 +832,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>12</v>
@@ -880,10 +843,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>499</v>
@@ -891,10 +854,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>450</v>
@@ -902,10 +865,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>35</v>
@@ -913,10 +876,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>726</v>
@@ -924,10 +887,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>68</v>
@@ -935,10 +898,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>152</v>
@@ -946,10 +909,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>140</v>
@@ -957,7 +920,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>60</v>
@@ -965,7 +928,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>35</v>
